--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290A30A-3C6F-4C2A-BA46-055A3F968C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CF647F-3770-4904-A315-80FA4395480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>Complemento</t>
   </si>
@@ -356,9 +356,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -432,6 +429,57 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - UNICA</t>
+  </si>
+  <si>
+    <t>S230009</t>
+  </si>
+  <si>
+    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - UNICA</t>
+  </si>
+  <si>
+    <t>S020036</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
   </si>
 </sst>
 </file>
@@ -514,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -531,21 +579,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -877,835 +919,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>896</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>898</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D40" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D41" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D43" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D45" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D48" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D50" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D51" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="5">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="5">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="5">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="5">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="5">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="5">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="5">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="D76" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C71" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="A1:D75" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+      <sortCondition ref="A1:A75"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="16">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C22 A24:C72">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D76">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C23" numberStoredAsText="1"/>
+    <ignoredError sqref="D39:D62 D8:D37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CF647F-3770-4904-A315-80FA4395480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4367FAE-1B8D-45EE-9085-791969708A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>Complemento</t>
   </si>
@@ -474,12 +474,6 @@
   </si>
   <si>
     <t>S020036</t>
-  </si>
-  <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
-    <t>S050008</t>
   </si>
 </sst>
 </file>
@@ -623,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -663,7 +657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -769,7 +763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -911,7 +905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -919,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,13 +1447,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1467,27 +1461,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1495,133 +1489,133 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="4">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D42" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D43" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D45" s="4">
-        <v>745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D48" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>133</v>
@@ -1630,68 +1624,68 @@
         <v>72</v>
       </c>
       <c r="D50" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" s="4">
-        <v>819</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="4">
-        <v>750</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D53" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D54" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>131</v>
@@ -1700,12 +1694,12 @@
         <v>80</v>
       </c>
       <c r="D55" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>131</v>
@@ -1713,27 +1707,27 @@
       <c r="C56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="4">
-        <v>87</v>
+      <c r="D56" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>135</v>
@@ -1742,26 +1736,26 @@
         <v>83</v>
       </c>
       <c r="D58" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="4">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="D59" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>131</v>
@@ -1770,46 +1764,46 @@
         <v>86</v>
       </c>
       <c r="D60" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="5">
-        <v>695</v>
+        <v>144</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>129</v>
+        <v>89</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1817,49 +1811,49 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D65" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="4">
-        <v>170</v>
+      <c r="D66" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>131</v>
@@ -1868,26 +1862,26 @@
         <v>93</v>
       </c>
       <c r="D67" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D68" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>137</v>
@@ -1896,12 +1890,12 @@
         <v>97</v>
       </c>
       <c r="D69" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>137</v>
@@ -1910,46 +1904,46 @@
         <v>97</v>
       </c>
       <c r="D70" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="5">
-        <v>762</v>
+        <v>101</v>
+      </c>
+      <c r="D71" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D72" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1957,50 +1951,36 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D75" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D75" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
-      <sortCondition ref="A1:A75"/>
+  <autoFilter ref="A1:D74" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+      <sortCondition ref="A1:A74"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2008,14 +1988,14 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D76">
+  <conditionalFormatting sqref="A2:D75">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D39:D62 D8:D37" numberStoredAsText="1"/>
+    <ignoredError sqref="D38:D61 D8:D37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4367FAE-1B8D-45EE-9085-791969708A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F0D13-AF2E-4C10-858E-059ECF8B3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>Complemento</t>
   </si>
@@ -359,9 +359,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -474,6 +471,12 @@
   </si>
   <si>
     <t>S020036</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -915,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -946,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -960,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -974,7 +986,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>103</v>
@@ -988,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1002,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1016,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1030,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1044,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1058,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1072,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1083,13 +1095,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1100,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1114,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1128,7 +1140,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1142,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1156,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1170,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1184,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1198,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1209,10 +1221,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>105</v>
@@ -1226,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -1237,16 +1249,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>36</v>
@@ -1268,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1279,27 +1291,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="4">
-        <v>13</v>
+      <c r="D26" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1310,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
@@ -1324,7 +1336,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -1338,7 +1350,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>44</v>
@@ -1352,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>44</v>
@@ -1366,7 +1378,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>44</v>
@@ -1380,7 +1392,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>44</v>
@@ -1391,13 +1403,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1408,7 +1420,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>49</v>
@@ -1422,7 +1434,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>49</v>
@@ -1433,16 +1445,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1462,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>52</v>
@@ -1464,7 +1476,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>54</v>
@@ -1478,7 +1490,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -1492,7 +1504,7 @@
         <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>58</v>
@@ -1506,7 +1518,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>60</v>
@@ -1520,7 +1532,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>62</v>
@@ -1534,7 +1546,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>64</v>
@@ -1548,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>66</v>
@@ -1562,7 +1574,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>68</v>
@@ -1576,7 +1588,7 @@
         <v>69</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>70</v>
@@ -1587,13 +1599,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1604,7 +1616,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>72</v>
@@ -1618,7 +1630,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>72</v>
@@ -1629,10 +1641,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>74</v>
@@ -1646,7 +1658,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>76</v>
@@ -1660,7 +1672,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>78</v>
@@ -1674,7 +1686,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>80</v>
@@ -1688,7 +1700,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>80</v>
@@ -1699,16 +1711,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1728,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>83</v>
@@ -1730,7 +1742,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>83</v>
@@ -1744,7 +1756,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>86</v>
@@ -1758,7 +1770,7 @@
         <v>85</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>86</v>
@@ -1769,16 +1781,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1798,7 @@
         <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>89</v>
@@ -1797,13 +1809,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1814,7 +1826,7 @@
         <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>91</v>
@@ -1828,7 +1840,7 @@
         <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>93</v>
@@ -1842,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>93</v>
@@ -1856,7 +1868,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>93</v>
@@ -1870,7 +1882,7 @@
         <v>96</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>97</v>
@@ -1884,7 +1896,7 @@
         <v>98</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>97</v>
@@ -1898,7 +1910,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>97</v>
@@ -1912,7 +1924,7 @@
         <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>101</v>
@@ -1923,13 +1935,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1937,13 +1949,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1951,13 +1963,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -1965,13 +1977,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -1984,18 +1996,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D75">
+  <conditionalFormatting sqref="A2:D25 A27:D75">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:D26">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D38:D61 D8:D37" numberStoredAsText="1"/>
+    <ignoredError sqref="D38:D61 D8:D25 D27:D37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F0D13-AF2E-4C10-858E-059ECF8B3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0595C8-102A-4C07-960A-5EF2F187CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -477,6 +471,12 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -944,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -958,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -972,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -983,13 +981,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1000,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1014,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1028,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1042,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1056,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1070,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1084,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1095,13 +1093,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1112,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1126,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1137,10 +1135,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1154,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1168,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1182,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1196,7 +1194,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1210,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1221,13 +1219,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1238,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -1249,16 +1247,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>36</v>
@@ -1280,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1291,27 +1289,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1322,7 +1320,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
@@ -1336,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -1350,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>44</v>
@@ -1364,7 +1362,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>44</v>
@@ -1378,7 +1376,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>44</v>
@@ -1392,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>44</v>
@@ -1403,13 +1401,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1417,83 +1415,83 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="D37" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1501,167 +1499,167 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D41" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="4">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D49" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D52" s="4">
         <v>553</v>
@@ -1669,13 +1667,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1683,13 +1681,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1697,13 +1695,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="4">
         <v>87</v>
@@ -1711,27 +1709,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D57" s="4">
         <v>55</v>
@@ -1739,13 +1737,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -1753,13 +1751,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5">
         <v>994</v>
@@ -1767,13 +1765,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="5">
         <v>695</v>
@@ -1781,27 +1779,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1809,13 +1807,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1823,13 +1821,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D64" s="4">
         <v>107</v>
@@ -1837,13 +1835,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D65" s="4">
         <v>170</v>
@@ -1851,13 +1849,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="5">
         <v>163</v>
@@ -1865,13 +1863,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="5">
         <v>799</v>
@@ -1879,13 +1877,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D68" s="5">
         <v>160</v>
@@ -1893,13 +1891,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D69" s="5">
         <v>569</v>
@@ -1907,13 +1905,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="5">
         <v>762</v>
@@ -1921,13 +1919,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -1935,13 +1933,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1949,13 +1947,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1963,13 +1961,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -1977,13 +1975,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -1996,23 +1994,20 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D25 A27:D75">
+  <conditionalFormatting sqref="A2:D50 A52:D75">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:D26">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D38:D61 D8:D25 D27:D37" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0595C8-102A-4C07-960A-5EF2F187CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDDD62-31A6-40EC-A754-1A1942CABA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -942,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -956,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -970,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -981,13 +983,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -998,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1012,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1026,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1040,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1054,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1068,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1082,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1093,13 +1095,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1110,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1124,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1135,10 +1137,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1152,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1166,7 +1168,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1180,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1194,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1208,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1219,13 +1221,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1236,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -1247,16 +1249,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>36</v>
@@ -1278,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1289,27 +1291,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1317,27 +1319,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1345,13 +1347,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="5">
         <v>899</v>
@@ -1359,13 +1361,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5">
         <v>896</v>
@@ -1373,13 +1375,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5">
         <v>900</v>
@@ -1387,13 +1389,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5">
         <v>898</v>
@@ -1401,13 +1403,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1415,13 +1417,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1429,13 +1431,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D36" s="4">
         <v>166</v>
@@ -1443,13 +1445,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>167</v>
@@ -1457,27 +1459,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1485,13 +1487,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1499,13 +1501,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1513,13 +1515,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1527,13 +1529,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1541,13 +1543,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1555,13 +1557,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1569,13 +1571,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1583,13 +1585,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1597,13 +1599,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1611,13 +1613,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1625,13 +1627,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1639,13 +1641,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1653,13 +1655,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D52" s="4">
         <v>553</v>
@@ -1667,13 +1669,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1681,13 +1683,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1695,13 +1697,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4">
         <v>87</v>
@@ -1709,27 +1711,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D57" s="4">
         <v>55</v>
@@ -1737,13 +1739,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -1751,13 +1753,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="5">
         <v>994</v>
@@ -1765,13 +1767,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D60" s="5">
         <v>695</v>
@@ -1779,27 +1781,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1807,13 +1809,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1821,13 +1823,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D64" s="4">
         <v>107</v>
@@ -1835,13 +1837,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D65" s="4">
         <v>170</v>
@@ -1849,13 +1851,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="5">
         <v>163</v>
@@ -1863,13 +1865,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="5">
         <v>799</v>
@@ -1877,13 +1879,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D68" s="5">
         <v>160</v>
@@ -1891,13 +1893,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" s="5">
         <v>569</v>
@@ -1905,13 +1907,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="5">
         <v>762</v>
@@ -1919,13 +1921,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -1933,13 +1935,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1947,13 +1949,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1961,13 +1963,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -1975,13 +1977,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -1994,18 +1996,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D75">
+  <conditionalFormatting sqref="A2:D27 A29:D75">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
+  <conditionalFormatting sqref="A28:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDDD62-31A6-40EC-A754-1A1942CABA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BEBC9-6F41-49B9-AD8B-05CA3323EB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
   <si>
     <t>Complemento</t>
   </si>
@@ -140,18 +140,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -410,12 +398,6 @@
     <t>S150295</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -443,9 +425,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -477,6 +456,18 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -927,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -958,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -972,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -983,13 +974,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1000,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1014,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1028,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1042,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1056,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1070,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1084,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1095,13 +1086,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1112,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1126,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1137,10 +1128,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1154,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1168,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1182,7 +1173,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1196,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1210,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1221,69 +1212,69 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1291,27 +1282,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1319,13 +1310,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4">
         <v>1159</v>
@@ -1333,13 +1324,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1347,13 +1338,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5">
         <v>899</v>
@@ -1361,13 +1352,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" s="5">
         <v>896</v>
@@ -1375,13 +1366,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5">
         <v>900</v>
@@ -1389,13 +1380,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D33" s="5">
         <v>898</v>
@@ -1403,13 +1394,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1417,13 +1408,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1431,13 +1422,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D36" s="4">
         <v>166</v>
@@ -1445,13 +1436,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4">
         <v>167</v>
@@ -1459,27 +1450,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1487,13 +1478,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1501,13 +1492,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1515,13 +1506,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1529,13 +1520,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1543,13 +1534,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1557,13 +1548,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1571,13 +1562,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1585,13 +1576,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1599,13 +1590,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1613,13 +1604,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1627,13 +1618,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1641,13 +1632,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1655,13 +1646,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4">
         <v>553</v>
@@ -1669,13 +1660,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1683,13 +1674,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1697,13 +1688,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D55" s="4">
         <v>87</v>
@@ -1711,27 +1702,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D57" s="4">
         <v>55</v>
@@ -1739,13 +1730,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -1753,13 +1744,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D59" s="5">
         <v>994</v>
@@ -1767,13 +1758,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D60" s="5">
         <v>695</v>
@@ -1781,27 +1772,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1809,13 +1800,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1823,13 +1814,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D64" s="4">
         <v>107</v>
@@ -1837,13 +1828,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65" s="4">
         <v>170</v>
@@ -1851,13 +1842,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D66" s="5">
         <v>163</v>
@@ -1865,13 +1856,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D67" s="5">
         <v>799</v>
@@ -1879,13 +1870,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D68" s="5">
         <v>160</v>
@@ -1893,13 +1884,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D69" s="5">
         <v>569</v>
@@ -1907,13 +1898,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D70" s="5">
         <v>762</v>
@@ -1921,13 +1912,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -1935,13 +1926,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1949,13 +1940,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1963,13 +1954,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -1977,13 +1968,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -1996,18 +1987,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A29:D75">
+  <conditionalFormatting sqref="A2:D20 A25:D75">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D28">
+  <conditionalFormatting sqref="A21:D24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
+      <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BEBC9-6F41-49B9-AD8B-05CA3323EB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F28829-B67C-44B2-9725-1EBB4FACEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
     <t>S020008</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -468,6 +456,18 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,34 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -918,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -946,13 +973,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -960,13 +987,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4">
         <v>103</v>
@@ -974,13 +1001,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -988,13 +1015,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>809</v>
@@ -1002,13 +1029,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>1045</v>
@@ -1016,13 +1043,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>103</v>
@@ -1030,13 +1057,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>33</v>
@@ -1044,13 +1071,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>31</v>
@@ -1058,13 +1085,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -1072,13 +1099,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1086,13 +1113,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1100,13 +1127,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1114,13 +1141,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1128,13 +1155,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
@@ -1142,13 +1169,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1156,13 +1183,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1170,13 +1197,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="4">
         <v>52</v>
@@ -1184,13 +1211,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>108</v>
@@ -1198,13 +1225,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>103</v>
@@ -1212,13 +1239,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1226,13 +1253,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1240,13 +1267,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1254,13 +1281,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1268,13 +1295,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1282,27 +1309,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1310,13 +1337,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4">
         <v>1159</v>
@@ -1324,13 +1351,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1338,13 +1365,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D30" s="5">
         <v>899</v>
@@ -1352,13 +1379,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5">
         <v>896</v>
@@ -1366,13 +1393,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5">
         <v>900</v>
@@ -1380,13 +1407,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5">
         <v>898</v>
@@ -1394,13 +1421,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1408,13 +1435,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1422,13 +1449,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D36" s="4">
         <v>166</v>
@@ -1436,13 +1463,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4">
         <v>167</v>
@@ -1450,41 +1477,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1492,13 +1519,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1506,13 +1533,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1520,13 +1547,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>40</v>
@@ -1534,13 +1561,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1548,13 +1575,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
         <v>745</v>
@@ -1562,13 +1589,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -1576,13 +1603,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1590,13 +1617,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1604,27 +1631,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1632,13 +1659,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1646,13 +1673,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4">
         <v>553</v>
@@ -1660,13 +1687,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1674,13 +1701,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1688,13 +1715,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" s="4">
         <v>87</v>
@@ -1702,27 +1729,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D57" s="4">
         <v>55</v>
@@ -1730,13 +1757,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -1744,13 +1771,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D59" s="5">
         <v>994</v>
@@ -1758,13 +1785,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D60" s="5">
         <v>695</v>
@@ -1772,27 +1799,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1800,13 +1827,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1814,13 +1841,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D64" s="4">
         <v>107</v>
@@ -1828,13 +1855,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D65" s="4">
         <v>170</v>
@@ -1842,13 +1869,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D66" s="5">
         <v>163</v>
@@ -1856,13 +1883,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D67" s="5">
         <v>799</v>
@@ -1870,13 +1897,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D68" s="5">
         <v>160</v>
@@ -1884,13 +1911,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D69" s="5">
         <v>569</v>
@@ -1898,13 +1925,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D70" s="5">
         <v>762</v>
@@ -1912,13 +1939,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -1926,13 +1953,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1940,13 +1967,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1954,13 +1981,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -1968,13 +1995,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
@@ -1987,18 +2014,33 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D20 A25:D75">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A3:D38 A40:D46 A48:D48 A50:D75">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D24">
+  <conditionalFormatting sqref="A39:D39">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:D47">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A47))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:D49">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
+      <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F28829-B67C-44B2-9725-1EBB4FACEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9F108-CD05-4116-B294-59F6A03B27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -575,34 +575,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -945,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1319,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,33 +1987,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D38 A40:D46 A48:D48 A50:D75">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:D27 A29:D75">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:D39">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:D47">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A47))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:D49">
+  <conditionalFormatting sqref="A28:D28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A49))&gt;0</formula>
+      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9F108-CD05-4116-B294-59F6A03B27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA178F4-C496-4E15-A011-1CB151A8B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
   <si>
     <t>Complemento</t>
   </si>
@@ -369,12 +369,6 @@
   </si>
   <si>
     <t>S020007</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>S010038</t>
@@ -575,16 +569,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -916,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -946,10 +931,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -963,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -977,7 +962,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>94</v>
@@ -991,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1005,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1019,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1033,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1047,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1061,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1075,7 +1060,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1086,13 +1071,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1103,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1117,7 +1102,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1131,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1145,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1159,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1173,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1187,7 +1172,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1201,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1212,10 +1197,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
@@ -1226,10 +1211,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>96</v>
@@ -1240,10 +1225,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>96</v>
@@ -1254,10 +1239,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>96</v>
@@ -1271,7 +1256,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1282,16 +1267,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1284,7 @@
         <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>99</v>
@@ -1310,10 +1295,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1327,7 +1312,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1341,7 +1326,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>38</v>
@@ -1355,7 +1340,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1369,7 +1354,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>38</v>
@@ -1383,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1397,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>101</v>
@@ -1408,13 +1393,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1425,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>43</v>
@@ -1439,7 +1424,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
@@ -1450,24 +1435,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1481,7 +1466,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1495,7 +1480,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1509,7 +1494,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1523,7 +1508,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1537,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1551,7 +1536,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1565,7 +1550,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>59</v>
@@ -1576,10 +1561,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -1593,7 +1578,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1604,13 +1589,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1621,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>64</v>
@@ -1635,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>64</v>
@@ -1649,7 +1634,7 @@
         <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>67</v>
@@ -1663,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>69</v>
@@ -1677,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>71</v>
@@ -1691,7 +1676,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>71</v>
@@ -1702,16 +1687,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,7 +1704,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>74</v>
@@ -1733,7 +1718,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>74</v>
@@ -1747,7 +1732,7 @@
         <v>78</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>77</v>
@@ -1761,7 +1746,7 @@
         <v>76</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>77</v>
@@ -1772,16 +1757,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1774,7 @@
         <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>80</v>
@@ -1803,7 +1788,7 @@
         <v>102</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>103</v>
@@ -1817,7 +1802,7 @@
         <v>81</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>82</v>
@@ -1831,7 +1816,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>84</v>
@@ -1845,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>84</v>
@@ -1859,7 +1844,7 @@
         <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>84</v>
@@ -1873,7 +1858,7 @@
         <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>88</v>
@@ -1887,7 +1872,7 @@
         <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>88</v>
@@ -1901,7 +1886,7 @@
         <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>88</v>
@@ -1915,7 +1900,7 @@
         <v>91</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>92</v>
@@ -1929,7 +1914,7 @@
         <v>108</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>109</v>
@@ -1940,65 +1925,46 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D74" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D74" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
-      <sortCondition ref="A1:A74"/>
+  <autoFilter ref="A1:D73" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+      <sortCondition ref="A1:A73"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D27 A29:D75">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D74">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D28">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA178F4-C496-4E15-A011-1CB151A8B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE728F0B-EB6A-4701-B09B-A43A05E7ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -458,10 +455,13 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -903,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -931,10 +940,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -948,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -959,13 +968,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -976,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -990,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1004,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1018,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1032,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1046,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1060,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1071,13 +1080,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1088,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1102,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1113,10 +1122,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1130,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1144,7 +1153,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1158,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1172,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1186,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1197,13 +1206,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1211,13 +1220,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1225,13 +1234,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1239,13 +1248,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1256,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1267,27 +1276,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1295,10 +1304,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1312,7 +1321,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1326,7 +1335,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>38</v>
@@ -1340,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1354,7 +1363,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>38</v>
@@ -1368,7 +1377,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1379,13 +1388,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1393,13 +1402,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1410,7 +1419,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>43</v>
@@ -1424,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
@@ -1435,24 +1444,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1466,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1480,7 +1489,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1494,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1508,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1522,7 +1531,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1536,7 +1545,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1550,7 +1559,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>59</v>
@@ -1564,24 +1573,24 @@
         <v>139</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D48" s="4">
         <v>211</v>
@@ -1589,13 +1598,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="4">
         <v>1167</v>
@@ -1603,13 +1612,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D50" s="4">
         <v>820</v>
@@ -1617,13 +1626,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="4">
         <v>819</v>
@@ -1631,13 +1640,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D52" s="4">
         <v>553</v>
@@ -1645,13 +1654,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D53" s="4">
         <v>395</v>
@@ -1659,13 +1668,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D54" s="4">
         <v>86</v>
@@ -1673,13 +1682,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4">
         <v>87</v>
@@ -1687,27 +1696,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D57" s="4">
         <v>55</v>
@@ -1715,13 +1724,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4">
         <v>54</v>
@@ -1729,13 +1738,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5">
         <v>994</v>
@@ -1743,13 +1752,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D60" s="5">
         <v>695</v>
@@ -1757,27 +1766,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1785,13 +1794,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1799,13 +1808,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D64" s="4">
         <v>107</v>
@@ -1813,13 +1822,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D65" s="4">
         <v>170</v>
@@ -1827,13 +1836,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5">
         <v>163</v>
@@ -1841,13 +1850,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5">
         <v>799</v>
@@ -1855,13 +1864,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D68" s="5">
         <v>160</v>
@@ -1869,13 +1878,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="5">
         <v>569</v>
@@ -1883,13 +1892,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5">
         <v>762</v>
@@ -1897,13 +1906,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -1911,13 +1920,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1925,13 +1934,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -1939,13 +1948,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -1958,13 +1967,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D74">
+  <conditionalFormatting sqref="A2:D46 A48:D74">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:D47">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE728F0B-EB6A-4701-B09B-A43A05E7ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DE145-7678-4209-9058-17622A334138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -569,16 +563,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -910,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -940,10 +925,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -954,30 +939,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="D3" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>53</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,55 +984,55 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
-        <v>1045</v>
+      <c r="D6" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,24 +1040,24 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1080,16 +1065,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,41 +1082,41 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1153,13 +1138,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,7 +1158,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="4">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,139 +1166,139 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1179</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>128</v>
+      <c r="D26" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,13 +1306,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="4">
-        <v>1</v>
+      <c r="D29" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,83 +1320,83 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5">
-        <v>898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D34" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,55 +1404,55 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="4">
-        <v>167</v>
+        <v>120</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>112</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,7 +1460,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1489,13 +1474,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="4">
-        <v>80</v>
+      <c r="D41" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,13 +1488,13 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
+      <c r="D42" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,13 +1502,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +1516,13 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,69 +1530,69 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D46" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,27 +1600,27 @@
         <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D51" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +1628,13 @@
         <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1642,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,41 +1656,41 @@
         <v>69</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="4">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="D56" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,80 +1698,80 @@
         <v>72</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D57" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="4">
-        <v>54</v>
+      <c r="D58" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="5">
-        <v>695</v>
+        <v>124</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1794,16 +1779,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +1796,13 @@
         <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D64" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,41 +1810,41 @@
         <v>82</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="4">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="D65" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D66" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D67" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,69 +1852,69 @@
         <v>86</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="5">
-        <v>762</v>
+      <c r="D70" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D71" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,48 +1922,29 @@
         <v>103</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="D73" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D73" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
-      <sortCondition ref="A1:A73"/>
+  <autoFilter ref="A1:D72" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D46 A48:D74">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D73">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:D47">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DE145-7678-4209-9058-17622A334138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EBFC6-6F9D-4EAD-A3E4-60EACF23B3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
   <si>
     <t>Complemento</t>
   </si>
@@ -248,9 +248,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -402,12 +399,6 @@
   </si>
   <si>
     <t>S230009</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PRANCHETA A4 - UNICA</t>
@@ -895,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -925,10 +916,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -939,13 +930,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="5">
         <v>53</v>
@@ -956,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -970,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -984,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -998,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1012,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1026,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1040,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1051,13 +1042,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1082,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1093,10 +1084,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1110,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1124,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1138,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1152,7 +1143,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1166,7 +1157,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1177,13 +1168,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1191,13 +1182,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1205,13 +1196,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1219,13 +1210,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1236,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1247,27 +1238,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1275,10 +1266,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1292,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1306,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1320,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1334,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1348,7 +1339,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
@@ -1359,13 +1350,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1373,13 +1364,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1390,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1404,7 +1395,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>41</v>
@@ -1415,24 +1406,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1446,7 +1437,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1460,7 +1451,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1474,7 +1465,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1488,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1502,7 +1493,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1516,7 +1507,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1530,7 +1521,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1541,13 +1532,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>1181</v>
@@ -1558,7 +1549,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>59</v>
@@ -1569,13 +1560,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4">
         <v>1167</v>
@@ -1586,7 +1577,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>61</v>
@@ -1600,7 +1591,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>61</v>
@@ -1614,7 +1605,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>64</v>
@@ -1628,7 +1619,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>66</v>
@@ -1642,7 +1633,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>68</v>
@@ -1656,41 +1647,41 @@
         <v>69</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>122</v>
+        <v>70</v>
+      </c>
+      <c r="D55" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="4">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="D56" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,243 +1689,215 @@
         <v>72</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D57" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="5">
-        <v>994</v>
+        <v>121</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="5">
-        <v>695</v>
+        <v>76</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="4">
-        <v>107</v>
+        <v>80</v>
+      </c>
+      <c r="D63" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="4">
-        <v>170</v>
+      <c r="D64" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D65" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D66" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D67" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="5">
-        <v>569</v>
+        <v>88</v>
+      </c>
+      <c r="D68" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="5">
-        <v>762</v>
+        <v>105</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="4">
+        <v>103</v>
+      </c>
+      <c r="D71" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D72" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
-      <sortCondition ref="A1:A72"/>
+  <autoFilter ref="A1:D70" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+      <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -1942,7 +1905,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D73">
+  <conditionalFormatting sqref="A2:D71">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EBFC6-6F9D-4EAD-A3E4-60EACF23B3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B385D23-A936-4DDD-97F2-2D793F31DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>Complemento</t>
   </si>
@@ -230,9 +230,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -447,6 +441,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -554,7 +551,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -889,7 +895,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -916,10 +922,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -930,13 +936,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D3" s="5">
         <v>53</v>
@@ -947,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -961,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -975,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -989,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1003,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1017,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1031,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1042,13 +1048,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1059,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1073,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1084,10 +1090,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1101,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1115,7 +1121,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1129,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1143,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1157,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1168,13 +1174,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1182,13 +1188,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1196,13 +1202,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1210,13 +1216,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1227,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1238,27 +1244,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1266,10 +1272,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1283,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1297,7 +1303,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1311,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1325,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1339,7 +1345,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
@@ -1350,13 +1356,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1364,13 +1370,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1381,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1395,7 +1401,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>41</v>
@@ -1406,24 +1412,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1437,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1451,7 +1457,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1465,7 +1471,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1479,7 +1485,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>51</v>
@@ -1493,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>53</v>
@@ -1507,7 +1513,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -1521,7 +1527,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>57</v>
@@ -1532,13 +1538,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>1181</v>
@@ -1549,7 +1555,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>59</v>
@@ -1560,13 +1566,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4">
         <v>1167</v>
@@ -1577,7 +1583,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>61</v>
@@ -1591,7 +1597,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>61</v>
@@ -1602,27 +1608,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D51" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D52" s="4">
         <v>395</v>
@@ -1630,13 +1636,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D53" s="4">
         <v>86</v>
@@ -1644,13 +1650,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D54" s="4">
         <v>55</v>
@@ -1658,13 +1664,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -1672,13 +1678,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="5">
         <v>994</v>
@@ -1686,13 +1692,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D57" s="5">
         <v>695</v>
@@ -1700,27 +1706,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1728,13 +1734,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1742,13 +1748,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D61" s="4">
         <v>107</v>
@@ -1756,13 +1762,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D62" s="4">
         <v>170</v>
@@ -1770,13 +1776,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5">
         <v>163</v>
@@ -1784,13 +1790,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="5">
         <v>799</v>
@@ -1798,13 +1804,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D65" s="5">
         <v>160</v>
@@ -1812,13 +1818,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5">
         <v>569</v>
@@ -1826,13 +1832,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5">
         <v>762</v>
@@ -1840,13 +1846,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -1854,13 +1860,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1868,13 +1874,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -1882,13 +1888,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
@@ -1901,13 +1907,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D71">
+  <conditionalFormatting sqref="A2:D50 A52:D71">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B385D23-A936-4DDD-97F2-2D793F31DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDD27D-D443-40C3-A841-123D7E63CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -936,13 +936,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D3" s="5">
         <v>53</v>
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -967,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1079,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1107,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1121,7 +1121,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1135,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1149,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1163,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1233,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1244,27 +1244,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1289,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1303,7 +1303,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1331,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1345,7 +1345,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1387,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1401,7 +1401,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>41</v>
@@ -1412,24 +1412,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1443,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -1454,27 +1454,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D42" s="4">
         <v>40</v>
@@ -1496,13 +1496,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D44" s="4">
         <v>745</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="4">
         <v>1181</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D47" s="4">
         <v>211</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="4">
         <v>1167</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D49" s="4">
         <v>820</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
         <v>819</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4">
         <v>1394</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D52" s="4">
         <v>395</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D53" s="4">
         <v>86</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D54" s="4">
         <v>55</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="5">
         <v>994</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D57" s="5">
         <v>695</v>
@@ -1706,27 +1706,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D61" s="4">
         <v>107</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D62" s="4">
         <v>170</v>
@@ -1776,13 +1776,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="5">
         <v>163</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="5">
         <v>799</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D65" s="5">
         <v>160</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="5">
         <v>569</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="5">
         <v>762</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D71" s="5">
         <v>1</v>
@@ -1907,18 +1907,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D71">
+  <conditionalFormatting sqref="A2:D39 A41:D71">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
+  <conditionalFormatting sqref="A40:D40">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
+      <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDD27D-D443-40C3-A841-123D7E63CE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E0AED8-1EFB-4C83-AA04-4426D8266FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -131,18 +122,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -260,9 +239,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -317,21 +293,12 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -341,30 +308,15 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -386,24 +338,15 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>FILME PVC PLASTICO - 300 M</t>
   </si>
   <si>
@@ -444,6 +387,60 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -551,16 +548,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -894,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -922,10 +910,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -936,13 +924,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5">
         <v>53</v>
@@ -953,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -967,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -981,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -995,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1009,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1023,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1034,41 +1022,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1076,13 +1064,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1090,13 +1078,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
@@ -1104,41 +1092,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>52</v>
@@ -1146,13 +1134,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>108</v>
@@ -1160,13 +1148,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4">
         <v>103</v>
@@ -1174,13 +1162,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4">
         <v>1176</v>
@@ -1188,13 +1176,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4">
         <v>1177</v>
@@ -1202,13 +1190,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4">
         <v>1178</v>
@@ -1216,13 +1204,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4">
         <v>1179</v>
@@ -1230,55 +1218,55 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4">
         <v>1162</v>
@@ -1286,27 +1274,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D29" s="5">
         <v>899</v>
@@ -1314,13 +1302,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D30" s="5">
         <v>896</v>
@@ -1328,13 +1316,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D31" s="5">
         <v>900</v>
@@ -1342,13 +1330,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32" s="5">
         <v>898</v>
@@ -1356,27 +1344,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1384,13 +1372,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4">
         <v>166</v>
@@ -1398,13 +1386,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D36" s="4">
         <v>167</v>
@@ -1412,27 +1400,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="D37" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4">
         <v>448</v>
@@ -1440,13 +1428,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4">
         <v>80</v>
@@ -1454,13 +1442,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4">
         <v>1396</v>
@@ -1468,27 +1456,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>40</v>
@@ -1496,27 +1484,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D44" s="4">
         <v>745</v>
@@ -1524,13 +1512,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -1538,13 +1526,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D46" s="4">
         <v>1181</v>
@@ -1552,13 +1540,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D47" s="4">
         <v>211</v>
@@ -1566,13 +1554,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4">
         <v>1167</v>
@@ -1580,13 +1568,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
         <v>820</v>
@@ -1594,13 +1582,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>819</v>
@@ -1608,13 +1596,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>1394</v>
@@ -1622,13 +1610,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>395</v>
@@ -1636,13 +1624,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>86</v>
@@ -1650,13 +1638,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4">
         <v>55</v>
@@ -1664,13 +1652,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -1678,13 +1666,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D56" s="5">
         <v>994</v>
@@ -1692,13 +1680,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D57" s="5">
         <v>695</v>
@@ -1706,55 +1694,55 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4">
         <v>107</v>
@@ -1762,13 +1750,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D62" s="4">
         <v>170</v>
@@ -1776,13 +1764,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D63" s="5">
         <v>163</v>
@@ -1790,13 +1778,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D64" s="5">
         <v>799</v>
@@ -1804,13 +1792,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D65" s="5">
         <v>160</v>
@@ -1818,13 +1806,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D66" s="5">
         <v>569</v>
@@ -1832,13 +1820,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D67" s="5">
         <v>762</v>
@@ -1846,13 +1834,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -1860,27 +1848,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -1888,37 +1876,32 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D70" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+  <autoFilter ref="A1:D71" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
       <sortCondition ref="A1:A70"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D39 A41:D71">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D71">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E0AED8-1EFB-4C83-AA04-4426D8266FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53060317-349A-483D-9797-149D06D2C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -548,7 +548,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -883,7 +892,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1180,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1194,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,7 +1208,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,7 +1222,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,13 +1904,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D71">
+  <conditionalFormatting sqref="A2:D19 A24:D71">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D23">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_sservico_ssala.xlsx
+++ b/pages/BA_csoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53060317-349A-483D-9797-149D06D2C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630160E-250F-4E99-90EF-6EF7EC7BB75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51A89EF9-927B-40A2-A744-590B1FED964A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="136">
   <si>
     <t>Complemento</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -548,16 +554,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -889,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,77 +1224,77 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5">
-        <v>1436</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5">
-        <v>12</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1454</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1455</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>93</v>
@@ -1306,12 +1303,12 @@
         <v>31</v>
       </c>
       <c r="D29" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>93</v>
@@ -1320,12 +1317,12 @@
         <v>31</v>
       </c>
       <c r="D30" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>93</v>
@@ -1334,54 +1331,54 @@
         <v>31</v>
       </c>
       <c r="D31" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1456</v>
+        <v>103</v>
+      </c>
+      <c r="D33" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="D34" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>93</v>
@@ -1390,77 +1387,77 @@
         <v>36</v>
       </c>
       <c r="D35" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4">
-        <v>272</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D40" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,21 +1798,21 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D65" s="5">
-        <v>160</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>98</v>
@@ -1824,12 +1821,12 @@
         <v>74</v>
       </c>
       <c r="D66" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>98</v>
@@ -1838,84 +1835,93 @@
         <v>74</v>
       </c>
       <c r="D67" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="4">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="D68" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="B72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D71" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
-      <sortCondition ref="A1:A70"/>
+  <autoFilter ref="A1:D72" xr:uid="{06ABDFC3-C38A-401F-9849-F5DE6B312F80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D19 A24:D71">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D72">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D23">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
